--- a/Data analysis for field work/02_data_class/5_Jeju_Hotplace/jeju_stu.xlsx
+++ b/Data analysis for field work/02_data_class/5_Jeju_Hotplace/jeju_stu.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
   <si>
     <t>content</t>
   </si>
@@ -31,193 +31,40 @@
     <t>tags</t>
   </si>
   <si>
-    <t>#그날의기억방법 아기자기 귀여운 ‘세모 제주’동쪽 구좌읍 행원리에 주먹밥 테이크아웃점제주 재료들로 만든 음식이라서더 신선하고 맛있더라구요ㅎㅎㅎ외관도 너무 귀엽고 주먹밥도 귀여워서또 다시 생각나는 곳입니다☺️제주 여행에 출출할때 잠깐 들려서간단히 먹기 좋습니다!주말 잘 마무리하세요😌&lt;제주 제주시 구좌읍 행원로 121&gt;</t>
-  </si>
-  <si>
-    <t>#그날의기억방법효리네민박에서 신상 소품샵으로 ‘소길별하’애월에 생긴 요즘 핫하다는 공간!예전에 효리네민박 촬영지에서 지금은 제주를 포함해 해당 지역 자원을활용해서 나만의 제품으로 만드는 로컬 브랜드가 20여개 입점되어 판매해요😌고퀄리티의 소품들이 많아서 좋더라구요ㅎㅎ예약은 네이버를 통해서 가능하고입장료는 1인 8,000원이고 시간당 25명만입장 가능하다고 합니다ㅎㅎ앞으로 더 많은 것들이 생겨날 공간이라 더 기대됩니다☺️이번 주도 즐거운 한 주 보내세요!*1월은 예약 마감이고 2월 예약은 1월 20일 5시에 열린다고 합니다&lt;제주 제주시 애월읍 소길남길 34-37&gt;</t>
-  </si>
-  <si>
-    <t>(광고)밥묵자~! 김대희가 밥두그릇 순삭했다는 그 맛집!"색달식당"'갈치가 이렇게 큰건 처음 봐요!!''와 비주얼이 대박인데요??''말이 필요없는 맛!''가족들이랑 꼭 다시 또 올게요!!진짜!!!'김대희가 감탄하고 갔다는 갈치조림 맛집!크기에 놀라고~ 맛에 놀라고~정신차려보니 밥 두그릇은 기본으로 순삭~살살 녹는 부드러운 갈치살에 추위까지 살살 녹는다녹아&lt;색달식당&gt;*제주 서귀포시 색달중앙로 23*10:00 - 21:30 *라스트오더 20:00*브레이크타임 15:00-16:00 *064-738-1741#제주도맛집#제주갈치조림#마노르블랑#서귀포호텔#제주도여행</t>
-  </si>
-  <si>
-    <t>.❤제주 인스타 감성스팟!❤제주에서 요기가서 막찍어도인생샷을 건질수있다는곳들을모아봤어!! 여기가서 한번 찰칵 해보고 인스타에 업로드 기기!!@찍어줄 친구소환!!!..#제주맛집 #제주도맛집 #제주공항근처맛집 #제주시맛집 #애월맛집 #중문맛집 #제주공항맛집 #서귀포맛집 #산방산맛집 #신제주맛집 #제주시청맛집 #제주애월맛집 #월정리맛집 #제주여행 #제주핫플</t>
-  </si>
-  <si>
-    <t>(광고)⁣여행선물 고민하지마세요! 특별하고 맛있는 제주선물!!제주여행 기념품⁣&lt;제주인 황제건어물 2호점&gt;!!⁣@jeju_in.hwangje_geoneomul⁣⁣판매메뉴: 당일바리오징어, 도톰한쥐포, 귀한한치, 부드러운아귀포, 즉석구이김 등 맛있는게 너무 많아 고민된다면!!황제건어물에서만 살 수 있는 #제주에서너에게 선물세트⁣1. 너에게 1번 세트⁣대구껍질, 아귀통, 귀채, 국산망족⁣2.너에게 2번세트⁣도톰쥐포, 살포구이,대구껍질, 통통구이⁣3.너에게 3번세트꼬리아귀, 장족,페스츄리, 쥐포구이채4.너에게 4번세트볶음새우, 볶음멸치, 진미채, 북어채1시간전 예약시 공항까지 "배달 가능 🛫"⁣⁣*전국 택배가능*🐙제주인황제건어물 2호점⁣제주시 우정로 60 1층⁣(제주공항15분)010-4029-2989⁣#제주도맛집 #제주도카페 #제주여행 #제주도여행#제주가볼만한곳 #제주살이 #제주핫플레이스#제주핫플 #제주간식 #제주먹거리 #제주기념품 #제주공항근처맛집 #제주야시장 #제주도핫플#제주도가볼만한곳 #제주여행코스 #제주여행선물#제주선물 #제주선물가게 #제주선물추천</t>
-  </si>
-  <si>
-    <t>.❤애월 "사이카레"❤오션뷰 바라보면서 혼밥카레도🌅너~무 분위기있다ㅠㅠ 카레도 왠지제주의 느낌이 물씬 풍기는거가타😘여러가지 토핑으로 맛도 즐겁고눈도 즐겁게👀 할수있다는점도 너무 좋은거같아👍요기서 바다보고 맛좋은 카레도 맛보면서제주의 느낌을 한껏받는거 어때..?😎😎✅번호 : 064)711.4279✅인스타 : @saicurry_aewol✅Open : 10시 Lastoder : 18시30분✅매월 2.4째 금요일 정기휴무(공휴일 정상영업)입니다.✅주소 : 제주시 애월해안로752 (2층)..#제주맛집 #제주도맛집 #제주공항근처맛집 #제주시맛집 #애월맛집 #중문맛집 #제주공항맛집 #서귀포맛집 #산방산맛집 #신제주맛집 #제주시청맛집 #제주애월맛집 #월정리맛집 #제주여행 #제주핫플</t>
-  </si>
-  <si>
-    <t>맛있는고♥️오늘도 맛있게 준비해서 오픈했어요🙋‍♀️전 메뉴 포장 가능하며,도착 30분 전 전화주시면 시간 맞춰 포장 도와드리겠습니다🙆‍♀️오늘도 #안녕하샌</t>
-  </si>
-  <si>
-    <t>(광고)인스타 광고 전문업체 플랜비컴퍼니입니다.현재 수백개의 업체 인스타 광고를 통한 매출향상!매장홍보, 오픈, 신메뉴 출시 등하루 1~5만 저렴한 가격으로 인스타 인기게시물로 홍보하세요.*아무리 맛있고, 좋은 제품, 이쁜카페가 있어도, 노출이되지 않고 사람들에게 알려지지 않으면 소용없습니다. 노출이 가장중요합니다.상담문의 010 5901 1470#연남동맛집 #제주도맛집 #중문맛집 #제주공항맛집 #제주공항근처맛집 #서귀포맛집 #연남동카페 #홍대맛집 #홍대카페 #경주맛집 #서면맛집 #전포동맛집 #부산맛집 #강남맛집 #인천맛집 #대구맛집 #동성로맛집 #이태원맛집 #포항맛집 #여수맛집 #속초맛집 #강릉맛집 #홍대입구역맛집 #제주흑돼지맛집 #부평맛집 #부천맛집 #기장맛집</t>
-  </si>
-  <si>
-    <t>#그날의기억방법다양한 원두와 3층이 각각 다른 ‘스테이위드’공항 근처에 생긴 새로운 톤의 대형카페핸드드립을 전문적으로 하고직접 로스팅해서 다양한 커피를 즐길 수 있어요😌무엇보다 좋았던게 오전 9시 오픈이라서여유롭게 커피를 마시고 왔네요ㅎㅎ주말 잘 보내세요😌&lt;제주 제주시 해안마을5길 29&gt;</t>
-  </si>
-  <si>
-    <t>🌄성산일출봉 모해통갈치화덕구이🐟▶고객님들의 소중한 사진 감사드립니다😊모해통갈치화덕구이는제주에서 꼭 먹어봐야하는통갈치구이+ 갈치조림 + 제주흑돼지가 한상에다 나온답니다^^*음식맛💯 가성비값🖒비주얼😗👍통갈치화덕구이 드시러 오세용^^*..▶제주 서귀포시 성산읍 일출로 267▶영업시간: 오전 11시~오후 10시▶Lastorder: 오후9시▶Breaktime: 🚫없습니다😎▶☎:064-784-2024......#성산일출봉맛집#성산맛집#성산일출봉근처맛집#제주통갈치구이#제주통갈치구이맛집#제주갈치조림맛집#제주흑돼지#봄그리고가을리조트#성산카페#해배치리조트맛집#제주도맛집#서귀포맛집#제주공항근처맛집#애월카페#월정리카페#제주롯데호텔맛집#제주먹방#제주여행#휘닉스섭지코지#스누피가든맛집</t>
-  </si>
-  <si>
-    <t>Purple Moss VintageWARDROBE🚪🚪—————————*모든 문의는 DM으로 문의주세요:)*12:00 ~ 20:00(21:00)Mon ~ Sun (연중무휴띄)제주시 애월읍 하귀로 53수입빈티지샵 퍼플모스Country Origin : EU / US / ASIA#퍼플모스구매삽가능</t>
-  </si>
-  <si>
-    <t>#협재 #이어돈가참숯으로 조진 흑돈마호크로 숯향이 군침 삼키게 하고🤤두툼한 고기 안을 꽉 찬 육즙이 다른 곳과 비교가 안됌🙊꽈리고추+흑돼지를 멜젓에 찍어먹으면 말해모해😆이것을 바로 찰떡궁합이라 하쥬💗예쁜 곳들 보느라 눈 힐링 했다면 이젠 입도 힐링 시켜주자😋@흑돼지에 한라산 콜?🔹제주특별자치도 제주시 한림읍 한림로 400-2 1층🔹매일 12:00~22:00 🙏 Last order 20시50분#제주여행 #제주도여행 #제주여행코스 #제주가볼만한곳 #제주맛집 #제주도맛집 #제주도가볼만한곳 #협재맛집 #협재맛집추천 #협재흑돼지 #협재흑돼지맛집 #제주서쪽맛집 #제주서쪽여행 #제주흑돼지맛집 #제주흑돼지 #제주도민맛집</t>
-  </si>
-  <si>
-    <t>월요일 모둠 숙성회 광어 참돔 민어 방어 성대 고등어 연어 눈다랑어 참다랑어아카미 가리비관자 찐전복 단새우 12종 구성 준비되며 금일 고등어 봉초밥, 초절임, 사바이소베마끼, 후토마끼 넉넉히 준비됩니다. 당일 예약 캔슬, 날짜 변경은 추후 방문, 예약이 어렵습니다. 예약 시간 10분 경과 미입장시 자동취소 되오니 참고 부탁드립니다. 금일도 준비 잘하여 17:00 - 21:00 열어둡니다. 고맙습니다 #제주다이닝느루온 #느루온 #제주이자카야</t>
-  </si>
-  <si>
-    <t>#제주도맛집#익선동맛집#소통스타그램#화장품추천#선팔100#일산맛집#방화동맛집#홍대네일#다이어트#먹팔#먹팔해요#먹팔소통#먹팔맞팔#먹팔환영#먹스타그램#먹스타#먹스타맞팔#먹방#먹방스타그램</t>
-  </si>
-  <si>
-    <t>.젤 잘나온게 이거라니😡2년동안 필드못나간게한이되었구만,한을 더쌓게이게 만든 짝꿍.🤬..#골프라운딩#제주란딩#제주도여행#제주오라cc #제주도맛집 #부부동반라운딩 #골프스타그램 #제주골프장</t>
-  </si>
-  <si>
-    <t>#제주분식 자꾸 생각나는 맛이네..또 먹고싶어!!!...제주분식주소-제주시 귀아랑길 23전화번호-064-726-2120#제주여행#제주도가볼만한곳#제주도민맛집#동문시장맛집#연동제주분식#제주연동맛집#제주도맛집#용두암맛집#제주그램#제주공항근처맛집#애월맛집</t>
-  </si>
-  <si>
-    <t>🌄성산일출봉 모해통갈치화덕구이🐟▶고객님들의 소중한 사진 감사드립니다😊모해통갈치화덕구이는제주에서 꼭 먹어봐야하는통갈치구이+ 갈치조림 + 제주흑돼지가 한상에다 나온답니다^^*음식맛💯 가성비값🖒비주얼😗👍통갈치화덕구이 드시러 오세용^^*..▶제주 서귀포시 성산읍 일출로 267▶영업시간: 오전 11시~오후 10시▶Lastorder: 오후9시▶Breaktime: 🚫없습니다😎▶☎:064-784-2024......#성산일출봉맛집#성산맛집#제주성산맛집#통갈치구이#제주통갈치조림맛집#제주갈치조림맛집#제주흑돼지맛집#코업시티호텔성산#성산카페#제주도가볼만한곳#제주도맛집#서귀포맛집#제주공항근처맛집#애월카페#월정리맛집#제주신라호텔맛집#제주먹방#제주도가족여행#휘닉스아일랜드제주#아쿠아플라넷제주</t>
-  </si>
-  <si>
-    <t>#제주도 #제주도여행 #제주도맛집 #제주도카페 #메인카 #대형세단 #검정세단 #뉴체어맨w #4tronic #쌍용자동차 #제주도출발</t>
-  </si>
-  <si>
-    <t>[ 回春 ]  회춘. become young again "우리에게도 봄은 다시오는가~~^^"#제주까페투어☕ #한가로운오후#우연한동 #우연한동독채펜션 #제주독채펜션 #제주독채펜션추천 #제주도숙소 #제주도숙소추천 #제주여행코스 #제주여행코스추천 #제주가볼만한곳 #제주도맛집 #제주커플펜션 #제주커플여행 #제주커플펜션추천 #제주가족여행 #제주가족펜션 #제주감성숙소 #제주동쪽숙소 #제주동쪽숙소추천 #구좌읍여행 #구좌읍맛집 #구좌읍펜션 #월정리숙소 #세화맛집 #제주감성펜션</t>
-  </si>
-  <si>
-    <t>#분위기#한남동카페#제주도여행#제주카페#제주도맛집#공스타그램#이달의아트#노을</t>
+    <t>2022-01-17</t>
   </si>
   <si>
     <t>2022-01-16</t>
   </si>
   <si>
-    <t>2022-01-14</t>
-  </si>
-  <si>
-    <t>2022-01-17</t>
-  </si>
-  <si>
-    <t>2022-01-15</t>
-  </si>
-  <si>
-    <t>3,943</t>
-  </si>
-  <si>
-    <t>2,624</t>
-  </si>
-  <si>
-    <t>1,281</t>
-  </si>
-  <si>
-    <t>1,156</t>
-  </si>
-  <si>
-    <t>438</t>
-  </si>
-  <si>
-    <t>291</t>
-  </si>
-  <si>
-    <t>4,806</t>
+    <t>2022-01-18</t>
+  </si>
+  <si>
+    <t>1,035</t>
+  </si>
+  <si>
+    <t>490</t>
+  </si>
+  <si>
+    <t>1,509</t>
+  </si>
+  <si>
+    <t>1,349</t>
+  </si>
+  <si>
+    <t>4,191</t>
+  </si>
+  <si>
+    <t>1,788</t>
+  </si>
+  <si>
+    <t>1,140</t>
+  </si>
+  <si>
+    <t>59</t>
   </si>
   <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>세모제주</t>
-  </si>
-  <si>
-    <t>소길별하</t>
-  </si>
-  <si>
-    <t>월정리해변</t>
-  </si>
-  <si>
-    <t>Stay with coffee - 스테이위드커피</t>
-  </si>
-  <si>
-    <t>퍼플모스 Purple Moss</t>
-  </si>
-  <si>
-    <t>느루,온穩</t>
-  </si>
-  <si>
-    <t>오라cc</t>
-  </si>
-  <si>
-    <t>제주도 애월읍</t>
-  </si>
-  <si>
-    <t>['#그날의기억방법']</t>
-  </si>
-  <si>
-    <t>['#그날의기억방법효리네민박에서']</t>
-  </si>
-  <si>
-    <t>['#제주도맛집', '#제주갈치조림', '#마노르블랑', '#서귀포호텔', '#제주도여행']</t>
-  </si>
-  <si>
-    <t>['#제주맛집', '#제주도맛집', '#제주공항근처맛집', '#제주시맛집', '#애월맛집', '#중문맛집', '#제주공항맛집', '#서귀포맛집', '#산방산맛집', '#신제주맛집', '#제주시청맛집', '#제주애월맛집', '#월정리맛집', '#제주여행', '#제주핫플']</t>
-  </si>
-  <si>
-    <t>['#제주에서너에게', '#제주도맛집', '#제주도카페', '#제주여행', '#제주도여행', '#제주가볼만한곳', '#제주살이', '#제주핫플레이스', '#제주핫플', '#제주간식', '#제주먹거리', '#제주기념품', '#제주공항근처맛집', '#제주야시장', '#제주도핫플', '#제주도가볼만한곳', '#제주여행코스', '#제주여행선물', '#제주선물', '#제주선물가게', '#제주선물추천']</t>
-  </si>
-  <si>
-    <t>['#안녕하샌']</t>
-  </si>
-  <si>
-    <t>['#연남동맛집', '#제주도맛집', '#중문맛집', '#제주공항맛집', '#제주공항근처맛집', '#서귀포맛집', '#연남동카페', '#홍대맛집', '#홍대카페', '#경주맛집', '#서면맛집', '#전포동맛집', '#부산맛집', '#강남맛집', '#인천맛집', '#대구맛집', '#동성로맛집', '#이태원맛집', '#포항맛집', '#여수맛집', '#속초맛집', '#강릉맛집', '#홍대입구역맛집', '#제주흑돼지맛집', '#부평맛집', '#부천맛집', '#기장맛집']</t>
-  </si>
-  <si>
-    <t>['#그날의기억방법다양한']</t>
-  </si>
-  <si>
-    <t>['#성산일출봉맛집', '#성산맛집', '#성산일출봉근처맛집', '#제주통갈치구이', '#제주통갈치구이맛집', '#제주갈치조림맛집', '#제주흑돼지', '#봄그리고가을리조트', '#성산카페', '#해배치리조트맛집', '#제주도맛집', '#서귀포맛집', '#제주공항근처맛집', '#애월카페', '#월정리카페', '#제주롯데호텔맛집', '#제주먹방', '#제주여행', '#휘닉스섭지코지', '#스누피가든맛집']</t>
-  </si>
-  <si>
-    <t>['#퍼플모스구매삽가능']</t>
-  </si>
-  <si>
-    <t>['#협재', '#이어돈가참숯으로', '#제주여행', '#제주도여행', '#제주여행코스', '#제주가볼만한곳', '#제주맛집', '#제주도맛집', '#제주도가볼만한곳', '#협재맛집', '#협재맛집추천', '#협재흑돼지', '#협재흑돼지맛집', '#제주서쪽맛집', '#제주서쪽여행', '#제주흑돼지맛집', '#제주흑돼지', '#제주도민맛집']</t>
-  </si>
-  <si>
-    <t>['#제주다이닝느루온', '#느루온', '#제주이자카야']</t>
-  </si>
-  <si>
-    <t>['#제주도맛집', '#익선동맛집', '#소통스타그램', '#화장품추천', '#선팔100', '#일산맛집', '#방화동맛집', '#홍대네일', '#다이어트', '#먹팔', '#먹팔해요', '#먹팔소통', '#먹팔맞팔', '#먹팔환영', '#먹스타그램', '#먹스타', '#먹스타맞팔', '#먹방', '#먹방스타그램']</t>
-  </si>
-  <si>
-    <t>['#골프라운딩', '#제주란딩', '#제주도여행', '#제주오라cc', '#제주도맛집', '#부부동반라운딩', '#골프스타그램', '#제주골프장']</t>
-  </si>
-  <si>
-    <t>['#제주분식', '#제주여행', '#제주도가볼만한곳', '#제주도민맛집', '#동문시장맛집', '#연동제주분식', '#제주연동맛집', '#제주도맛집', '#용두암맛집', '#제주그램', '#제주공항근처맛집', '#애월맛집']</t>
-  </si>
-  <si>
-    <t>['#성산일출봉맛집', '#성산맛집', '#제주성산맛집', '#통갈치구이', '#제주통갈치조림맛집', '#제주갈치조림맛집', '#제주흑돼지맛집', '#코업시티호텔성산', '#성산카페', '#제주도가볼만한곳', '#제주도맛집', '#서귀포맛집', '#제주공항근처맛집', '#애월카페', '#월정리맛집', '#제주신라호텔맛집', '#제주먹방', '#제주도가족여행', '#휘닉스아일랜드제주', '#아쿠아플라넷제주']</t>
-  </si>
-  <si>
-    <t>['#제주도', '#제주도여행', '#제주도맛집', '#제주도카페', '#메인카', '#대형세단', '#검정세단', '#뉴체어맨w', '#4tronic', '#쌍용자동차', '#제주도출발']</t>
-  </si>
-  <si>
-    <t>['#제주까페투어☕', '#한가로운오후', '#우연한동', '#우연한동독채펜션', '#제주독채펜션', '#제주독채펜션추천', '#제주도숙소', '#제주도숙소추천', '#제주여행코스', '#제주여행코스추천', '#제주가볼만한곳', '#제주도맛집', '#제주커플펜션', '#제주커플여행', '#제주커플펜션추천', '#제주가족여행', '#제주가족펜션', '#제주감성숙소', '#제주동쪽숙소', '#제주동쪽숙소추천', '#구좌읍여행', '#구좌읍맛집', '#구좌읍펜션', '#월정리숙소', '#세화맛집', '#제주감성펜션']</t>
-  </si>
-  <si>
-    <t>['#분위기', '#한남동카페', '#제주도여행', '#제주카페', '#제주도맛집', '#공스타그램', '#이달의아트', '#노을']</t>
   </si>
 </sst>
 </file>
@@ -599,307 +446,163 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" t="s">
-        <v>49</v>
+      <c r="C2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>51</v>
+      <c r="C4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
       <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>53</v>
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
       <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>55</v>
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="E11" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
         <v>16</v>
       </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
       <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" t="s">
-        <v>61</v>
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
       <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="E18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
+    </row>
+    <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
       <c r="B20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>67</v>
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
